--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Dropbox\Uni shit\Third Year\COSC345\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Dropbox\Uni\Third Year\COSC345\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,7 +206,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42804</c:v>
@@ -433,6 +433,7 @@
         <c:axId val="360710280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42887"/>
           <c:min val="42804"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -451,7 +452,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -485,7 +486,7 @@
         <c:crossAx val="360710608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="15"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1417,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1467,7 @@
         <v>42810</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D12" si="0">C3-B3</f>
         <v>3</v>
       </c>
     </row>
